--- a/resources/Excel Tutorials.xlsx
+++ b/resources/Excel Tutorials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Obsidian\Obsidian Vault\📝 Notes\Awesome List\Excel\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370B8BAB-62AB-44BA-8C9A-0E51214251E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBBDE6F-008D-46A2-B397-0E11061D9EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{39B2E810-CFA0-4A1E-958C-05FA910F5418}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Main Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Main Sheet'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Main Sheet'!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,132 +37,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>S.No.</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Excel for Accounting - 10 Excel Functions You NEED to KNOW!</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?si=j52gWdeDlHo0xHP5&amp;v=m_SH0TOLsIc&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>The Ultimate LOOKUP Guide (XLOOKUP, VLOOKUP, HLOOKUP)</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=3MdPSHkyfdI</t>
-  </si>
-  <si>
     <t>4 Mins to MASTER Excel INDEX &amp; MATCH formulas!</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=-4yCXpv-drg</t>
-  </si>
-  <si>
     <t>Monthly Budgeting &amp; Forecasting Model [Template Included]</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=yJcL4et-ClY</t>
-  </si>
-  <si>
     <t>Excel Formulas YOU NEED for Business &amp; Finance Roles</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=bNdy0l6CWvU</t>
-  </si>
-  <si>
     <t>How to Create a Chart of Accounts in Excel</t>
   </si>
   <si>
-    <t xml:space="preserve">https://youtu.be/b5EYwI7tmvU?si=CUk3iS3NrUHDYqU- </t>
-  </si>
-  <si>
     <t>Excel Financial Modeling | Sensitivity &amp; Scenario Analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">https://youtu.be/oBs4GoubFcY?si=PaIf6dXWnUwMEReX </t>
-  </si>
-  <si>
     <t>You Won't Believe These Crazy PIVOT TABLE Hacks!</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=ZZRl7fALdjw</t>
-  </si>
-  <si>
     <t>Learn Excel MACROS in 10 Minutes Using Real World Examples</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=IZY0SpSpYTM </t>
-  </si>
-  <si>
     <t>How to Create Macros in Excel Tutorial</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=uyj_OljPlcU</t>
-  </si>
-  <si>
     <t>Build a Dynamic 3 Statement Financial Model From Scratch</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=66WChsYJ8C4</t>
-  </si>
-  <si>
     <t>Tutorial: Using Excel to Prepare Financial Statements</t>
   </si>
   <si>
-    <t xml:space="preserve">https://youtu.be/D0Q6lUrParI?si=hEq74OKReKIfUnTF </t>
-  </si>
-  <si>
     <t>Most Common Excel Errors #️⃣ and How To Fix Them - Avoid Broken Formulas</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=sFn0gE_y1U4 </t>
-  </si>
-  <si>
     <t>How To Use Excel FILTER Function With Multiple Criteria &amp; Return Only the Columns You Need</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=1mHAVptUKAk </t>
-  </si>
-  <si>
     <t>How to Calculate NPV, IRR &amp; ROI in Excel</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=19n-4yf9jlE </t>
-  </si>
-  <si>
     <t>Excel Tutorial: Conditional Formatting in a Single Step Income Statement</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=h5XbIMPuG9U </t>
-  </si>
-  <si>
     <t>How To Import &amp; Clean Messy Accounting Data in Excel | Use Power Query to Import SAP Data</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=TjGbOoKvZ7M </t>
-  </si>
-  <si>
     <t>Excel to PowerPoint - What's the best way to do it? (Embedding, Linking or Other)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=MRhWNttrXxU </t>
-  </si>
-  <si>
     <t>Excel Tips &amp; Tricks</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=qHaZYN5uINc</t>
-  </si>
-  <si>
     <t>Interactive Excel Dashboards &amp; ONE CLICK Update!</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?si=vgXKRyS-tcwiZAqr&amp;t=24&amp;v=K74_FNnlIF8&amp;feature=youtu.be</t>
+    <t>Top 10 Essential Excel Formulas for Analysts in 2024</t>
+  </si>
+  <si>
+    <t>Title &amp; Links</t>
   </si>
 </sst>
 </file>
@@ -215,9 +158,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -225,13 +167,65 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF006100"/>
+      <color rgb="FFC6EFCE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -241,6 +235,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCA1A1C7-2DD8-4290-8059-B6ABD4B3299E}" name="Table1" displayName="Table1" ref="A1:B22" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
+    <sortCondition ref="A1:A22"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{590C204A-3B5C-4431-BF86-E110A01F10E1}" name="S.No." dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{28249728-8E65-48D6-A741-22BD2711FFBB}" name="Title &amp; Links" dataDxfId="0" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,333 +547,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E70AEE9-19CB-4CF4-8F4A-AA6F353602D4}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="80.6328125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="83.7265625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="str">
-        <f>HYPERLINK(C2,B2)</f>
-        <v>Excel for Accounting - 10 Excel Functions You NEED to KNOW!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D21" si="0">HYPERLINK(C3,B3)</f>
-        <v>The Ultimate LOOKUP Guide (XLOOKUP, VLOOKUP, HLOOKUP)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>4 Mins to MASTER Excel INDEX &amp; MATCH formulas!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Monthly Budgeting &amp; Forecasting Model [Template Included]</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Excel Formulas YOU NEED for Business &amp; Finance Roles</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>How to Create a Chart of Accounts in Excel</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Excel Financial Modeling | Sensitivity &amp; Scenario Analysis</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>You Won't Believe These Crazy PIVOT TABLE Hacks!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Learn Excel MACROS in 10 Minutes Using Real World Examples</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>How to Create Macros in Excel Tutorial</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Build a Dynamic 3 Statement Financial Model From Scratch</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Tutorial: Using Excel to Prepare Financial Statements</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Most Common Excel Errors #️⃣ and How To Fix Them - Avoid Broken Formulas</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>How To Use Excel FILTER Function With Multiple Criteria &amp; Return Only the Columns You Need</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>How to Calculate NPV, IRR &amp; ROI in Excel</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Excel Tutorial: Conditional Formatting in a Single Step Income Statement</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>How To Import &amp; Clean Messy Accounting Data in Excel | Use Power Query to Import SAP Data</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Excel to PowerPoint - What's the best way to do it? (Embedding, Linking or Other)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Excel Tips &amp; Tricks</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Interactive Excel Dashboards &amp; ONE CLICK Update!</v>
-      </c>
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{6E70AEE9-19CB-4CF4-8F4A-AA6F353602D4}"/>
+  <conditionalFormatting sqref="A24:C1048576 A23 C23">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$C23="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?si=j52gWdeDlHo0xHP5&amp;v=m_SH0TOLsIc&amp;feature=youtu.be" xr:uid="{DBFBA1F1-EC0E-4DF3-91B1-42244D6691E9}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.youtube.com/watch?v=3MdPSHkyfdI" xr:uid="{E2388572-40C0-4F57-9715-C71293A506EC}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.youtube.com/watch?v=-4yCXpv-drg" xr:uid="{B322D214-E535-4A86-A71F-D5EBF49EEF38}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.youtube.com/watch?v=yJcL4et-ClY" xr:uid="{826CC30A-E801-4D2E-8D3E-CBAA16096DAD}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.youtube.com/watch?v=bNdy0l6CWvU" xr:uid="{09C2B6C7-A8E8-4A4C-885D-1990FC34DE9C}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://youtu.be/b5EYwI7tmvU?si=CUk3iS3NrUHDYqU-%20" xr:uid="{EBE5DF85-599C-4CE8-9D6E-AA4F8DA303B5}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://youtu.be/oBs4GoubFcY?si=PaIf6dXWnUwMEReX%20" xr:uid="{57B95450-F859-4461-ACF1-D982ADDD67B8}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://www.youtube.com/watch?v=ZZRl7fALdjw" xr:uid="{CFC42DC2-314F-4BE8-B472-27FCB89F24A9}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://www.youtube.com/watch?v=IZY0SpSpYTM%20" xr:uid="{F477C39F-3F59-478F-9BBE-C647B884F8E2}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://www.youtube.com/watch?v=uyj_OljPlcU" xr:uid="{FD865790-C0BB-43C4-90E5-C2A997AB64E8}"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://www.youtube.com/watch?v=66WChsYJ8C4" xr:uid="{45F01F28-1C94-4359-A78E-9985EBC3776B}"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://youtu.be/D0Q6lUrParI?si=hEq74OKReKIfUnTF%20" xr:uid="{E62624A0-6285-4D73-BA83-8E4E2A7B596C}"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://www.youtube.com/watch?v=sFn0gE_y1U4%20" xr:uid="{3341A226-960A-4183-8D81-370645E8D8D4}"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://www.youtube.com/watch?v=1mHAVptUKAk%20" xr:uid="{10FFD98E-A673-4666-B8B5-0998185EAE60}"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://www.youtube.com/watch?v=19n-4yf9jlE%20" xr:uid="{00D31DD3-646F-4707-8369-1521372CD602}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://www.youtube.com/watch?v=h5XbIMPuG9U%20" xr:uid="{C6F08D29-9BD2-43F3-A39F-3FEB098CBCCA}"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://www.youtube.com/watch?v=TjGbOoKvZ7M%20" xr:uid="{FF17AE21-4DEF-40FB-95B9-D2F91399BE0E}"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://www.youtube.com/watch?v=MRhWNttrXxU%20" xr:uid="{DBDF3F2B-8B95-4111-AF29-A4D7BED6D4C5}"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://www.youtube.com/watch?v=qHaZYN5uINc" xr:uid="{77DF9A4F-176C-4062-BB78-ECE2FAACFCFC}"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://www.youtube.com/watch?si=vgXKRyS-tcwiZAqr&amp;t=24&amp;v=K74_FNnlIF8&amp;feature=youtu.be" xr:uid="{DD148986-4D69-41F1-BDE0-D58A203C2A18}"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://www.youtube.com/watch?v=MeBYShlqsak" xr:uid="{280D5340-A9CE-47F0-8302-98E164B00DEC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId22"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/resources/Excel Tutorials.xlsx
+++ b/resources/Excel Tutorials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Obsidian\Obsidian Vault\📝 Notes\Awesome List\Excel\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBBDE6F-008D-46A2-B397-0E11061D9EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D809CB5-B34E-4B0D-B697-5427D9417A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{39B2E810-CFA0-4A1E-958C-05FA910F5418}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>S.No.</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Title &amp; Links</t>
+  </si>
+  <si>
+    <t>20 Excel Shortcuts to Save You HOURS of Work</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -170,9 +173,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -181,10 +181,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -196,24 +193,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -238,13 +218,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCA1A1C7-2DD8-4290-8059-B6ABD4B3299E}" name="Table1" displayName="Table1" ref="A1:B22" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCA1A1C7-2DD8-4290-8059-B6ABD4B3299E}" name="Table1" displayName="Table1" ref="A1:B23" totalsRowShown="0">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
     <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{590C204A-3B5C-4431-BF86-E110A01F10E1}" name="S.No." dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{28249728-8E65-48D6-A741-22BD2711FFBB}" name="Title &amp; Links" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{590C204A-3B5C-4431-BF86-E110A01F10E1}" name="S.No." dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{28249728-8E65-48D6-A741-22BD2711FFBB}" name="Title &amp; Links" dataDxfId="1" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E70AEE9-19CB-4CF4-8F4A-AA6F353602D4}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,7 +552,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2"/>
@@ -581,7 +561,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C3"/>
@@ -590,7 +570,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4"/>
@@ -599,7 +579,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5"/>
@@ -608,7 +588,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6"/>
@@ -617,7 +597,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C7"/>
@@ -626,7 +606,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C8"/>
@@ -635,7 +615,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9"/>
@@ -644,7 +624,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C10"/>
@@ -653,7 +633,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11"/>
@@ -662,7 +642,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C12"/>
@@ -671,7 +651,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C13"/>
@@ -680,7 +660,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C14"/>
@@ -689,7 +669,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C15"/>
@@ -698,7 +678,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C16"/>
@@ -707,7 +687,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C17"/>
@@ -716,7 +696,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C18"/>
@@ -725,7 +705,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C19"/>
@@ -734,7 +714,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C20"/>
@@ -743,7 +723,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C21"/>
@@ -752,20 +732,20 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="5"/>
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A24:C1048576 A23 C23">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$C23="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?si=j52gWdeDlHo0xHP5&amp;v=m_SH0TOLsIc&amp;feature=youtu.be" xr:uid="{DBFBA1F1-EC0E-4DF3-91B1-42244D6691E9}"/>
     <hyperlink ref="B3" r:id="rId2" display="https://www.youtube.com/watch?v=3MdPSHkyfdI" xr:uid="{E2388572-40C0-4F57-9715-C71293A506EC}"/>
@@ -788,10 +768,11 @@
     <hyperlink ref="B20" r:id="rId19" display="https://www.youtube.com/watch?v=qHaZYN5uINc" xr:uid="{77DF9A4F-176C-4062-BB78-ECE2FAACFCFC}"/>
     <hyperlink ref="B21" r:id="rId20" display="https://www.youtube.com/watch?si=vgXKRyS-tcwiZAqr&amp;t=24&amp;v=K74_FNnlIF8&amp;feature=youtu.be" xr:uid="{DD148986-4D69-41F1-BDE0-D58A203C2A18}"/>
     <hyperlink ref="B22" r:id="rId21" display="https://www.youtube.com/watch?v=MeBYShlqsak" xr:uid="{280D5340-A9CE-47F0-8302-98E164B00DEC}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{B728E733-F1CA-4E6A-8D40-B54A37A4F904}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>